--- a/财务/haha.xlsx
+++ b/财务/haha.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19545" windowHeight="8970"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19540" windowHeight="8980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -252,12 +257,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -332,6 +337,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -389,7 +402,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -412,13 +425,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -454,13 +480,7 @@
     <xf numFmtId="176" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -475,9 +495,17 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -746,51 +774,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.375" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
     <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="11.375" customWidth="1"/>
-    <col min="6" max="6" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.25" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" customWidth="1"/>
     <col min="9" max="9" width="26" customWidth="1"/>
-    <col min="10" max="10" width="11.25" customWidth="1"/>
-    <col min="11" max="11" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="11.375" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" customWidth="1"/>
+    <col min="11" max="11" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="17" t="s">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="17"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="25"/>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
@@ -803,7 +831,7 @@
       <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="24"/>
+      <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
@@ -818,15 +846,17 @@
       <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="15">
         <v>16.3</v>
       </c>
       <c r="F3" s="1">
         <v>18.5</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="26">
+        <v>16.5</v>
+      </c>
       <c r="H3" s="2"/>
-      <c r="I3" s="24"/>
+      <c r="I3" s="22"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
@@ -841,13 +871,15 @@
       <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="15">
         <v>18.5</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="2"/>
+      <c r="G4" s="27">
+        <v>12</v>
+      </c>
       <c r="H4" s="2"/>
-      <c r="I4" s="24"/>
+      <c r="I4" s="22"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
@@ -862,15 +894,17 @@
       <c r="D5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="15">
         <v>8</v>
       </c>
       <c r="F5" s="1">
         <v>12.6</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="27">
+        <v>15.5</v>
+      </c>
       <c r="H5" s="2"/>
-      <c r="I5" s="24"/>
+      <c r="I5" s="22"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
@@ -886,12 +920,14 @@
         <v>17</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="16">
+      <c r="F6" s="15">
         <v>16.3</v>
       </c>
-      <c r="G6" s="2"/>
+      <c r="G6" s="27">
+        <v>15</v>
+      </c>
       <c r="H6" s="2"/>
-      <c r="I6" s="24"/>
+      <c r="I6" s="22"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
@@ -910,9 +946,9 @@
       <c r="F7" s="1">
         <v>12</v>
       </c>
-      <c r="G7" s="2"/>
+      <c r="G7" s="27"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="24"/>
+      <c r="I7" s="22"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
@@ -931,9 +967,9 @@
       <c r="F8" s="1">
         <v>11.8</v>
       </c>
-      <c r="G8" s="2"/>
+      <c r="G8" s="27"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="24"/>
+      <c r="I8" s="22"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
@@ -949,12 +985,14 @@
         <v>23</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="16">
+      <c r="F9" s="15">
         <v>15.6</v>
       </c>
-      <c r="G9" s="2"/>
+      <c r="G9" s="27">
+        <v>13</v>
+      </c>
       <c r="H9" s="2"/>
-      <c r="I9" s="24"/>
+      <c r="I9" s="22"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
@@ -975,7 +1013,7 @@
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="24"/>
+      <c r="I10" s="22"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
@@ -996,7 +1034,7 @@
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="24"/>
+      <c r="I11" s="22"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="2" t="s">
@@ -1017,7 +1055,7 @@
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="24"/>
+      <c r="I12" s="22"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
@@ -1038,16 +1076,16 @@
       <c r="F13" s="1"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="24"/>
-    </row>
-    <row r="14" spans="1:11" ht="14.25">
+      <c r="I13" s="22"/>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="17">
         <v>12325488</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="18" t="s">
         <v>33</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -1061,19 +1099,19 @@
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="24"/>
-    </row>
-    <row r="15" spans="1:11" ht="14.25">
+      <c r="I14" s="22"/>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="17">
         <v>12327462</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="20" t="s">
         <v>65</v>
       </c>
       <c r="E15" s="5">
@@ -1084,17 +1122,17 @@
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="24"/>
-    </row>
-    <row r="16" spans="1:11" ht="14.25">
-      <c r="A16" s="22" t="s">
+      <c r="I15" s="22"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="20" t="s">
+      <c r="B16" s="17"/>
+      <c r="C16" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="20" t="s">
         <v>62</v>
       </c>
       <c r="E16" s="5">
@@ -1105,24 +1143,24 @@
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="24" t="s">
+      <c r="I16" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="J16" s="23" t="s">
+      <c r="J16" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="K16" s="23" t="s">
+      <c r="K16" s="21" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="14.25">
+    <row r="17" spans="1:13">
       <c r="A17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="17">
         <v>12336612</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="18" t="s">
         <v>38</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -1137,88 +1175,88 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:13" ht="14.25">
-      <c r="A18" s="22" t="s">
+    <row r="18" spans="1:13">
+      <c r="A18" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="25" t="s">
+      <c r="B18" s="17"/>
+      <c r="C18" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="19">
         <v>5</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F18" s="19">
         <v>10</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="24" t="s">
+      <c r="I18" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="J18" s="23" t="s">
+      <c r="J18" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="K18" s="23" t="s">
+      <c r="K18" s="21" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="20" t="s">
         <v>52</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21">
+      <c r="E19" s="19"/>
+      <c r="F19" s="19">
         <v>8</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="24" t="s">
+      <c r="I19" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="J19" s="23" t="s">
+      <c r="J19" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="K19" s="23" t="s">
+      <c r="K19" s="21" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="20" t="s">
         <v>53</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="19">
         <v>8.5</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F20" s="19">
         <v>16.5</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
-      <c r="I20" s="24" t="s">
+      <c r="I20" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="J20" s="23" t="s">
+      <c r="J20" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="K20" s="23" t="s">
+      <c r="K20" s="21" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1676,6 +1714,11 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/财务/haha.xlsx
+++ b/财务/haha.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19540" windowHeight="8980"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -495,14 +495,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
@@ -778,7 +778,7 @@
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -798,27 +798,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
       <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="25"/>
+      <c r="A2" s="27"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
-      <c r="D2" s="25"/>
+      <c r="D2" s="27"/>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
@@ -852,7 +852,7 @@
       <c r="F3" s="1">
         <v>18.5</v>
       </c>
-      <c r="G3" s="26">
+      <c r="G3" s="24">
         <v>16.5</v>
       </c>
       <c r="H3" s="2"/>
@@ -875,7 +875,7 @@
         <v>18.5</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="27">
+      <c r="G4" s="25">
         <v>12</v>
       </c>
       <c r="H4" s="2"/>
@@ -900,7 +900,7 @@
       <c r="F5" s="1">
         <v>12.6</v>
       </c>
-      <c r="G5" s="27">
+      <c r="G5" s="25">
         <v>15.5</v>
       </c>
       <c r="H5" s="2"/>
@@ -923,7 +923,7 @@
       <c r="F6" s="15">
         <v>16.3</v>
       </c>
-      <c r="G6" s="27">
+      <c r="G6" s="25">
         <v>15</v>
       </c>
       <c r="H6" s="2"/>
@@ -946,7 +946,9 @@
       <c r="F7" s="1">
         <v>12</v>
       </c>
-      <c r="G7" s="27"/>
+      <c r="G7" s="25">
+        <v>14.3</v>
+      </c>
       <c r="H7" s="2"/>
       <c r="I7" s="22"/>
     </row>
@@ -967,7 +969,7 @@
       <c r="F8" s="1">
         <v>11.8</v>
       </c>
-      <c r="G8" s="27"/>
+      <c r="G8" s="25"/>
       <c r="H8" s="2"/>
       <c r="I8" s="22"/>
     </row>
@@ -988,7 +990,7 @@
       <c r="F9" s="15">
         <v>15.6</v>
       </c>
-      <c r="G9" s="27">
+      <c r="G9" s="25">
         <v>13</v>
       </c>
       <c r="H9" s="2"/>
@@ -1032,7 +1034,9 @@
       <c r="F11" s="1">
         <v>13</v>
       </c>
-      <c r="G11" s="2"/>
+      <c r="G11" s="2">
+        <v>18</v>
+      </c>
       <c r="H11" s="2"/>
       <c r="I11" s="22"/>
     </row>

--- a/财务/haha.xlsx
+++ b/财务/haha.xlsx
@@ -778,7 +778,7 @@
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1079,7 +1079,9 @@
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2">
+        <v>18.5</v>
+      </c>
       <c r="I13" s="22"/>
     </row>
     <row r="14" spans="1:11">
@@ -1125,7 +1127,9 @@
         <v>12.5</v>
       </c>
       <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="H15" s="2">
+        <v>12</v>
+      </c>
       <c r="I15" s="22"/>
     </row>
     <row r="16" spans="1:11">
@@ -1177,7 +1181,9 @@
         <v>8</v>
       </c>
       <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="H17" s="2">
+        <v>12</v>
+      </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="20" t="s">
@@ -1224,7 +1230,9 @@
         <v>8</v>
       </c>
       <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+      <c r="H19" s="2">
+        <v>13</v>
+      </c>
       <c r="I19" s="22" t="s">
         <v>60</v>
       </c>

--- a/财务/haha.xlsx
+++ b/财务/haha.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14175"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="74">
   <si>
     <t>姓名</t>
   </si>
@@ -253,16 +253,40 @@
     <t>焦作</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t>张军柯</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>柯柯</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>王蒙</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>6217920670066476</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>王蒙</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>浦发北京慧忠支行</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -444,7 +468,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -503,9 +527,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -774,27 +801,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.375" customWidth="1"/>
     <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.1640625" customWidth="1"/>
+    <col min="5" max="5" width="11.375" customWidth="1"/>
+    <col min="6" max="6" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.125" customWidth="1"/>
     <col min="9" max="9" width="26" customWidth="1"/>
-    <col min="10" max="10" width="11.1640625" customWidth="1"/>
-    <col min="11" max="11" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="11.33203125" customWidth="1"/>
+    <col min="10" max="10" width="11.125" customWidth="1"/>
+    <col min="11" max="11" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1084,7 +1111,7 @@
       </c>
       <c r="I13" s="22"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" ht="14.25">
       <c r="A14" s="2" t="s">
         <v>32</v>
       </c>
@@ -1107,7 +1134,7 @@
       <c r="H14" s="2"/>
       <c r="I14" s="22"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" ht="14.25">
       <c r="A15" s="2" t="s">
         <v>35</v>
       </c>
@@ -1132,7 +1159,7 @@
       </c>
       <c r="I15" s="22"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" ht="14.25">
       <c r="A16" s="20" t="s">
         <v>50</v>
       </c>
@@ -1161,7 +1188,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" ht="14.25">
       <c r="A17" s="2" t="s">
         <v>37</v>
       </c>
@@ -1185,7 +1212,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" ht="14.25">
       <c r="A18" s="20" t="s">
         <v>51</v>
       </c>
@@ -1270,6 +1297,43 @@
       </c>
       <c r="K20" s="21" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28">
+        <v>13.5</v>
+      </c>
+      <c r="I22" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="J22" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="K22" s="21" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1726,7 +1790,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/财务/haha.xlsx
+++ b/财务/haha.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="75">
   <si>
     <t>姓名</t>
   </si>
@@ -275,6 +275,10 @@
   </si>
   <si>
     <t>浦发北京慧忠支行</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -521,14 +525,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -802,10 +806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:AD34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -818,34 +822,42 @@
     <col min="6" max="6" width="13.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.125" customWidth="1"/>
-    <col min="9" max="9" width="26" customWidth="1"/>
-    <col min="10" max="10" width="11.125" customWidth="1"/>
-    <col min="11" max="11" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="11.375" customWidth="1"/>
+    <col min="9" max="9" width="11.375" customWidth="1"/>
+    <col min="12" max="12" width="9.625" customWidth="1"/>
+    <col min="27" max="27" width="26" customWidth="1"/>
+    <col min="28" max="28" width="11.125" customWidth="1"/>
+    <col min="29" max="29" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:29">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="22"/>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="AA1" s="22"/>
+    </row>
+    <row r="2" spans="1:29">
+      <c r="A2" s="28"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
-      <c r="D2" s="27"/>
+      <c r="D2" s="28"/>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
@@ -858,9 +870,21 @@
       <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="22"/>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="I2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA2" s="22"/>
+    </row>
+    <row r="3" spans="1:29">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -883,9 +907,15 @@
         <v>16.5</v>
       </c>
       <c r="H3" s="2"/>
-      <c r="I3" s="22"/>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="I3" s="2">
+        <v>15</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="AA3" s="22"/>
+    </row>
+    <row r="4" spans="1:29">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -906,9 +936,15 @@
         <v>12</v>
       </c>
       <c r="H4" s="2"/>
-      <c r="I4" s="22"/>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="I4" s="2">
+        <v>16</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="AA4" s="22"/>
+    </row>
+    <row r="5" spans="1:29">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -931,9 +967,15 @@
         <v>15.5</v>
       </c>
       <c r="H5" s="2"/>
-      <c r="I5" s="22"/>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="I5" s="2">
+        <v>13</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="AA5" s="22"/>
+    </row>
+    <row r="6" spans="1:29">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -954,9 +996,15 @@
         <v>15</v>
       </c>
       <c r="H6" s="2"/>
-      <c r="I6" s="22"/>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="I6" s="2">
+        <v>15</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="AA6" s="22"/>
+    </row>
+    <row r="7" spans="1:29">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -977,9 +1025,13 @@
         <v>14.3</v>
       </c>
       <c r="H7" s="2"/>
-      <c r="I7" s="22"/>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="AA7" s="22"/>
+    </row>
+    <row r="8" spans="1:29">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -998,9 +1050,13 @@
       </c>
       <c r="G8" s="25"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="22"/>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="AA8" s="22"/>
+    </row>
+    <row r="9" spans="1:29">
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
@@ -1021,9 +1077,13 @@
         <v>13</v>
       </c>
       <c r="H9" s="2"/>
-      <c r="I9" s="22"/>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="AA9" s="22"/>
+    </row>
+    <row r="10" spans="1:29">
       <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
@@ -1042,9 +1102,13 @@
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="22"/>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="AA10" s="22"/>
+    </row>
+    <row r="11" spans="1:29">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
@@ -1065,9 +1129,13 @@
         <v>18</v>
       </c>
       <c r="H11" s="2"/>
-      <c r="I11" s="22"/>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="AA11" s="22"/>
+    </row>
+    <row r="12" spans="1:29">
       <c r="A12" s="2" t="s">
         <v>28</v>
       </c>
@@ -1086,9 +1154,13 @@
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="22"/>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="AA12" s="22"/>
+    </row>
+    <row r="13" spans="1:29">
       <c r="A13" s="2" t="s">
         <v>30</v>
       </c>
@@ -1109,9 +1181,13 @@
       <c r="H13" s="2">
         <v>18.5</v>
       </c>
-      <c r="I13" s="22"/>
-    </row>
-    <row r="14" spans="1:11" ht="14.25">
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="AA13" s="22"/>
+    </row>
+    <row r="14" spans="1:29" ht="14.25">
       <c r="A14" s="2" t="s">
         <v>32</v>
       </c>
@@ -1132,9 +1208,13 @@
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="22"/>
-    </row>
-    <row r="15" spans="1:11" ht="14.25">
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="AA14" s="22"/>
+    </row>
+    <row r="15" spans="1:29" ht="14.25">
       <c r="A15" s="2" t="s">
         <v>35</v>
       </c>
@@ -1157,9 +1237,13 @@
       <c r="H15" s="2">
         <v>12</v>
       </c>
-      <c r="I15" s="22"/>
-    </row>
-    <row r="16" spans="1:11" ht="14.25">
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="AA15" s="22"/>
+    </row>
+    <row r="16" spans="1:29" ht="14.25">
       <c r="A16" s="20" t="s">
         <v>50</v>
       </c>
@@ -1178,17 +1262,21 @@
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="22" t="s">
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="AA16" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="J16" s="21" t="s">
+      <c r="AB16" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="K16" s="21" t="s">
+      <c r="AC16" s="21" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="14.25">
+    <row r="17" spans="1:30" ht="14.25">
       <c r="A17" s="2" t="s">
         <v>37</v>
       </c>
@@ -1211,8 +1299,12 @@
       <c r="H17" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" ht="14.25">
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="1:30" ht="14.25">
       <c r="A18" s="20" t="s">
         <v>51</v>
       </c>
@@ -1231,17 +1323,21 @@
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="22" t="s">
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="AA18" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="J18" s="21" t="s">
+      <c r="AB18" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="K18" s="21" t="s">
+      <c r="AC18" s="21" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:30">
       <c r="A19" s="20" t="s">
         <v>52</v>
       </c>
@@ -1260,17 +1356,21 @@
       <c r="H19" s="2">
         <v>13</v>
       </c>
-      <c r="I19" s="22" t="s">
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="AA19" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="J19" s="21" t="s">
+      <c r="AB19" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="K19" s="21" t="s">
+      <c r="AC19" s="21" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:30">
       <c r="A20" s="20" t="s">
         <v>53</v>
       </c>
@@ -1289,54 +1389,66 @@
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
-      <c r="I20" s="22" t="s">
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="AA20" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="J20" s="21" t="s">
+      <c r="AB20" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="K20" s="21" t="s">
+      <c r="AC20" s="21" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:30">
       <c r="A21" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
       <c r="D21" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="26"/>
+    </row>
+    <row r="22" spans="1:30">
       <c r="A22" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28">
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26">
         <v>13.5</v>
       </c>
-      <c r="I22" s="22" t="s">
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="26"/>
+      <c r="AA22" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="J22" s="21" t="s">
+      <c r="AB22" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="K22" s="21" t="s">
+      <c r="AC22" s="21" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:30">
       <c r="A24" s="6"/>
       <c r="B24" t="s">
         <v>8</v>
@@ -1360,22 +1472,22 @@
         <v>45</v>
       </c>
       <c r="I24" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA24" t="s">
         <v>46</v>
       </c>
-      <c r="J24" s="7" t="s">
+      <c r="AB24" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="K24" t="s">
+      <c r="AC24" t="s">
         <v>40</v>
       </c>
-      <c r="L24" t="s">
+      <c r="AD24" t="s">
         <v>48</v>
       </c>
-      <c r="M24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+    </row>
+    <row r="25" spans="1:30">
       <c r="A25" s="8">
         <v>42948</v>
       </c>
@@ -1400,23 +1512,23 @@
       <c r="H25" s="9">
         <v>0</v>
       </c>
-      <c r="I25" s="9">
-        <v>0</v>
-      </c>
-      <c r="J25" s="9">
-        <v>0</v>
-      </c>
-      <c r="K25" s="9">
-        <v>0</v>
-      </c>
-      <c r="L25" s="9">
+      <c r="I25" s="11">
         <v>1183179.8000042699</v>
       </c>
-      <c r="M25" s="11">
+      <c r="AA25" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="9">
         <v>1183179.8000042699</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:30">
       <c r="A26" s="10">
         <v>42979</v>
       </c>
@@ -1441,23 +1553,23 @@
       <c r="H26" s="9">
         <v>0</v>
       </c>
-      <c r="I26" s="9">
-        <v>0</v>
-      </c>
-      <c r="J26" s="9">
-        <v>0</v>
-      </c>
-      <c r="K26" s="9">
-        <v>0</v>
-      </c>
-      <c r="L26" s="9">
+      <c r="I26" s="14">
         <v>1901831.8802823999</v>
       </c>
-      <c r="M26" s="14">
+      <c r="AA26" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="9">
         <v>1901831.8802823999</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:30">
       <c r="A27" s="8">
         <v>43009</v>
       </c>
@@ -1482,23 +1594,23 @@
       <c r="H27" s="9">
         <v>0</v>
       </c>
-      <c r="I27" s="9">
-        <v>0</v>
-      </c>
-      <c r="J27" s="9">
-        <v>0</v>
-      </c>
-      <c r="K27" s="9">
-        <v>0</v>
-      </c>
-      <c r="L27" s="9">
+      <c r="I27" s="11">
         <v>2981922.69000244</v>
       </c>
-      <c r="M27" s="11">
+      <c r="AA27" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="9">
         <v>2981922.69000244</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:30">
       <c r="A28" s="10">
         <v>43040</v>
       </c>
@@ -1523,23 +1635,23 @@
       <c r="H28" s="9">
         <v>0</v>
       </c>
-      <c r="I28" s="9">
-        <v>0</v>
-      </c>
-      <c r="J28" s="9">
-        <v>0</v>
-      </c>
-      <c r="K28" s="9">
-        <v>0</v>
-      </c>
-      <c r="L28" s="9">
+      <c r="I28" s="14">
         <v>3028035.8800094202</v>
       </c>
-      <c r="M28" s="14">
+      <c r="AA28" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="9">
         <v>3028035.8800094202</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:30">
       <c r="A29" s="8">
         <v>43070</v>
       </c>
@@ -1564,23 +1676,23 @@
       <c r="H29" s="9">
         <v>0</v>
       </c>
-      <c r="I29" s="9">
-        <v>0</v>
-      </c>
-      <c r="J29" s="9">
-        <v>0</v>
-      </c>
-      <c r="K29" s="9">
-        <v>0</v>
-      </c>
-      <c r="L29" s="9">
+      <c r="I29" s="11">
         <v>3145077.4229888902</v>
       </c>
-      <c r="M29" s="11">
+      <c r="AA29" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="9">
         <v>3145077.4229888902</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:30">
       <c r="A30" s="10">
         <v>43101</v>
       </c>
@@ -1605,23 +1717,23 @@
       <c r="H30" s="9">
         <v>0</v>
       </c>
-      <c r="I30" s="9">
-        <v>0</v>
-      </c>
-      <c r="J30" s="9">
-        <v>0</v>
-      </c>
-      <c r="K30" s="9">
-        <v>0</v>
-      </c>
-      <c r="L30" s="9">
+      <c r="I30" s="14">
         <v>2066278.00999999</v>
       </c>
-      <c r="M30" s="14">
+      <c r="AA30" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="9">
         <v>2066278.00999999</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:30">
       <c r="A31" s="8">
         <v>43132</v>
       </c>
@@ -1646,23 +1758,23 @@
       <c r="H31" s="9">
         <v>0</v>
       </c>
-      <c r="I31" s="9">
-        <v>0</v>
-      </c>
-      <c r="J31" s="9">
-        <v>0</v>
-      </c>
-      <c r="K31" s="9">
-        <v>0</v>
-      </c>
-      <c r="L31" s="9">
+      <c r="I31" s="11">
         <v>1123474</v>
       </c>
-      <c r="M31" s="11">
+      <c r="AA31" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="9">
         <v>1123474</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:30">
       <c r="A32" s="10">
         <v>43160</v>
       </c>
@@ -1687,23 +1799,23 @@
       <c r="H32" s="9">
         <v>0</v>
       </c>
-      <c r="I32" s="9">
-        <v>0</v>
-      </c>
-      <c r="J32" s="9">
-        <v>0</v>
-      </c>
-      <c r="K32" s="9">
-        <v>0</v>
-      </c>
-      <c r="L32" s="9">
+      <c r="I32" s="14">
+        <v>3437404</v>
+      </c>
+      <c r="AA32" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="9">
         <v>3037404</v>
       </c>
-      <c r="M32" s="14">
-        <v>3437404</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+    </row>
+    <row r="33" spans="1:30">
       <c r="A33" s="8">
         <v>43191</v>
       </c>
@@ -1728,23 +1840,23 @@
       <c r="H33" s="12">
         <v>0</v>
       </c>
-      <c r="I33" s="11">
+      <c r="I33" s="14">
+        <v>4537404</v>
+      </c>
+      <c r="AA33" s="11">
         <v>100000</v>
       </c>
-      <c r="J33" s="12">
-        <v>0</v>
-      </c>
-      <c r="K33" s="11">
-        <v>0</v>
-      </c>
-      <c r="L33" s="11">
+      <c r="AB33" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="11">
         <v>561928</v>
       </c>
-      <c r="M33" s="14">
-        <v>4537404</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+    </row>
+    <row r="34" spans="1:30">
       <c r="A34" s="10">
         <v>43221</v>
       </c>
@@ -1769,24 +1881,25 @@
       <c r="H34" s="7">
         <v>0</v>
       </c>
-      <c r="I34" s="11">
+      <c r="I34" s="14">
+        <v>3437404</v>
+      </c>
+      <c r="AA34" s="11">
         <v>350000</v>
       </c>
-      <c r="J34" s="12">
-        <v>0</v>
-      </c>
-      <c r="K34" s="11">
+      <c r="AB34" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="11">
         <v>100000</v>
       </c>
-      <c r="M34" s="14">
-        <v>3437404</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="D1:D2"/>
+    <mergeCell ref="I1:L1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
